--- a/2015/Day4.xlsx
+++ b/2015/Day4.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfalero/Documents/Financial Modelling World Cup/Advent-of-Code-Excel/2015/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F25CC0-CB70-1642-89AC-EC6517F600FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276B2197-CCD3-744F-B41A-E4A406F84B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
+    <workbookView xWindow="17120" yWindow="760" windowWidth="17440" windowHeight="21580" activeTab="1" xr2:uid="{BD9D965C-81AA-E441-BA42-DB93D2E4F26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="3" r:id="rId1"/>
     <sheet name="Workings" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="input">Workings!#REF!</definedName>
+    <definedName name="input">Workings!$A$1</definedName>
     <definedName name="Number1">Workings!#REF!</definedName>
     <definedName name="Number2">Workings!#REF!</definedName>
     <definedName name="Target">Workings!#REF!</definedName>
@@ -41,12 +41,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>P1 Solution:</t>
   </si>
   <si>
     <t>P2 Solution:</t>
+  </si>
+  <si>
+    <t>bgvyzdsv</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F4387-9FD6-E241-86F1-7FFD05E57526}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>